--- a/data/EasternMassachusetts/EM_creation.xlsx
+++ b/data/EasternMassachusetts/EM_creation.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/NetbeansProjects/DNDP/data/EasternMassachusetts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E231BD-A2BA-7646-A6A6-C16D593F2D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6EB3A4-6EDD-3948-BBB9-FE3770E4705B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{3C18C25E-1802-D24A-AE80-06DE8A175B15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -156,9 +156,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -496,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3157CD-9E9D-1749-AEB5-E2BD306E5F7F}">
   <dimension ref="A1:S257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -608,7 +607,8 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.5214441E-2</v>
+        <f ca="1">IF(COUNTIF(N$10:N$19, S10)&gt;0, RAND()*0.02, 0)</f>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -616,9 +616,9 @@
       <c r="Q10">
         <v>1</v>
       </c>
-      <c r="S10" s="2" cm="1">
+      <c r="S10" s="1" cm="1">
         <f t="array" aca="1" ref="S10:S257" ca="1">_xlfn.SORTBY(_xlfn.SEQUENCE(248), _xlfn.RANDARRAY(248))</f>
-        <v>13</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
@@ -653,7 +653,8 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>6.1350809999999997E-3</v>
+        <f t="shared" ref="K11:K74" ca="1" si="0">IF(COUNTIF(N$10:N$19, S11)&gt;0, RAND()*0.02, 0)</f>
+        <v>0</v>
       </c>
       <c r="N11">
         <f>N10+1</f>
@@ -665,7 +666,7 @@
       </c>
       <c r="S11">
         <f ca="1"/>
-        <v>243</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
@@ -700,19 +701,20 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.8326011E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N12">
-        <f t="shared" ref="N12:N75" si="0">N11+1</f>
+        <f t="shared" ref="N12:N75" si="1">N11+1</f>
         <v>3</v>
       </c>
       <c r="Q12">
-        <f t="shared" ref="Q12:Q39" si="1">Q11+1</f>
+        <f t="shared" ref="Q12:Q39" si="2">Q11+1</f>
         <v>3</v>
       </c>
       <c r="S12">
         <f ca="1"/>
-        <v>116</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
@@ -747,19 +749,20 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.0257731000000001E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="S13">
         <f ca="1"/>
-        <v>40</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
@@ -794,19 +797,20 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.9075689999999999E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N14">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Q14">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
+      <c r="Q14">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="S14">
         <f ca="1"/>
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
@@ -841,19 +845,20 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>8.0726500000000007E-3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N15">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="Q15">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
+      <c r="Q15">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="S15">
         <f ca="1"/>
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
@@ -888,19 +893,20 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.9428879999999999E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N16">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="Q16">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
+      <c r="Q16">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
       <c r="S16">
         <f ca="1"/>
-        <v>165</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
@@ -935,19 +941,20 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.1111359999999997E-3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N17">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="Q17">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
+      <c r="Q17">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="S17">
         <f ca="1"/>
-        <v>174</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
@@ -982,19 +989,20 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.9022890000000007E-3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N18">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="Q18">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
+      <c r="Q18">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
       <c r="S18">
         <f ca="1"/>
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
@@ -1029,19 +1037,20 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>7.5998929999999999E-3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N19">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="Q19">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
+      <c r="Q19">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
       <c r="S19">
         <f ca="1"/>
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
@@ -1076,19 +1085,20 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.6248589000000001E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N20">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="Q20">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
+      <c r="Q20">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
       <c r="S20">
         <f ca="1"/>
-        <v>180</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
@@ -1123,19 +1133,20 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.9960000000000001E-4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N21">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="Q21">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
+      <c r="Q21">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
       <c r="S21">
         <f ca="1"/>
-        <v>135</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
@@ -1170,19 +1181,20 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>5.8886629999999997E-3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N22">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="Q22">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
+      <c r="Q22">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
       <c r="S22">
         <f ca="1"/>
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
@@ -1217,19 +1229,20 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.3173798E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N23">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="Q23">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
+      <c r="Q23">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
       <c r="S23">
         <f ca="1"/>
-        <v>49</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
@@ -1264,19 +1277,20 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>5.1900649999999998E-3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N24">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="Q24">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
+      <c r="Q24">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
       <c r="S24">
         <f ca="1"/>
-        <v>242</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
@@ -1311,19 +1325,20 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.1499552E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N25">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="Q25">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
+      <c r="Q25">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
       <c r="S25">
         <f ca="1"/>
-        <v>53</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
@@ -1358,19 +1373,20 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>1.3298091E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N26">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="Q26">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
+      <c r="Q26">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
       <c r="S26">
         <f ca="1"/>
-        <v>236</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
@@ -1405,19 +1421,20 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>8.0373719999999992E-3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N27">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="Q27">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
+      <c r="Q27">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
       <c r="S27">
         <f ca="1"/>
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
@@ -1452,19 +1469,20 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>1.3547877E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N28">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="Q28">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
+      <c r="Q28">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
       <c r="S28">
         <f ca="1"/>
-        <v>233</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
@@ -1499,19 +1517,20 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>1.4988757E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N29">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="Q29">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
+      <c r="Q29">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="S29">
         <f ca="1"/>
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
@@ -1546,19 +1565,20 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>1.5719931999999999E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N30">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="Q30">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
+      <c r="Q30">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
       <c r="S30">
         <f ca="1"/>
-        <v>218</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
@@ -1593,19 +1613,20 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>3.3923920000000002E-3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N31">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="Q31">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
+      <c r="Q31">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
       <c r="S31">
         <f ca="1"/>
-        <v>69</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
@@ -1640,19 +1661,20 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>3.23204E-4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N32">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="Q32">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
+      <c r="Q32">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
       <c r="S32">
         <f ca="1"/>
-        <v>92</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
@@ -1687,19 +1709,20 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>1.4973432E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N33">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="Q33">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
+      <c r="Q33">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
       <c r="S33">
         <f ca="1"/>
-        <v>153</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
@@ -1734,19 +1757,20 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>1.3344457000000001E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N34">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="Q34">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
+      <c r="Q34">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
       <c r="S34">
         <f ca="1"/>
-        <v>217</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
@@ -1781,19 +1805,20 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>1.1507079999999999E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N35">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="Q35">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
+      <c r="Q35">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
       <c r="S35">
         <f ca="1"/>
-        <v>11</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
@@ -1828,19 +1853,20 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>7.5483929999999996E-3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N36">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="Q36">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
+      <c r="Q36">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
       <c r="S36">
         <f ca="1"/>
-        <v>139</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
@@ -1875,19 +1901,20 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>1.0664088E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N37">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="Q37">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
+      <c r="Q37">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
       <c r="S37">
         <f ca="1"/>
-        <v>9</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
@@ -1922,19 +1949,20 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>8.6786499999999996E-3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N38">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="Q38">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
+      <c r="Q38">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
       <c r="S38">
         <f ca="1"/>
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
@@ -1969,19 +1997,20 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>6.3215479999999998E-3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N39">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="Q39">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
+      <c r="Q39">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
       <c r="S39">
         <f ca="1"/>
-        <v>57</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
@@ -2016,15 +2045,16 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>1.8366759E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="S40">
         <f ca="1"/>
-        <v>186</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
@@ -2059,15 +2089,16 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>1.3555240000000001E-3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="S41">
         <f ca="1"/>
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
@@ -2102,15 +2133,16 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>3.231505E-3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="S42">
         <f ca="1"/>
-        <v>103</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
@@ -2145,15 +2177,16 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>1.6438537999999999E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="S43">
         <f ca="1"/>
-        <v>169</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
@@ -2188,15 +2221,16 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>1.4060354000000001E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="S44">
         <f ca="1"/>
-        <v>47</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
@@ -2231,15 +2265,16 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>1.749006E-3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="S45">
         <f ca="1"/>
-        <v>42</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
@@ -2274,15 +2309,16 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>1.2069969E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="S46">
         <f ca="1"/>
-        <v>122</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
@@ -2317,15 +2353,16 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>2.2041830000000002E-3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="S47">
         <f ca="1"/>
-        <v>115</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
@@ -2360,15 +2397,16 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>1.1357763999999999E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="S48">
         <f ca="1"/>
-        <v>65</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
@@ -2403,15 +2441,16 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>1.3017353000000001E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="S49">
         <f ca="1"/>
-        <v>227</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
@@ -2446,15 +2485,16 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>1.0406739E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="S50">
         <f ca="1"/>
-        <v>142</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
@@ -2489,15 +2529,16 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>1.7388383E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="S51">
         <f ca="1"/>
-        <v>46</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
@@ -2532,15 +2573,16 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>1.816364E-3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="S52">
         <f ca="1"/>
-        <v>221</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
@@ -2575,15 +2617,16 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <v>6.3290849999999999E-3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="S53">
         <f ca="1"/>
-        <v>183</v>
+        <v>209</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
@@ -2618,15 +2661,16 @@
         <v>0</v>
       </c>
       <c r="K54">
-        <v>1.6673733999999999E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="S54">
         <f ca="1"/>
-        <v>71</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
@@ -2661,15 +2705,16 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>1.1451396000000001E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="S55">
         <f ca="1"/>
-        <v>114</v>
+        <v>191</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
@@ -2704,15 +2749,16 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>4.7237650000000004E-3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="S56">
         <f ca="1"/>
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
@@ -2747,15 +2793,16 @@
         <v>0</v>
       </c>
       <c r="K57">
-        <v>1.9434213999999998E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="S57">
         <f ca="1"/>
-        <v>73</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
@@ -2790,15 +2837,16 @@
         <v>0</v>
       </c>
       <c r="K58">
-        <v>1.7860958E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="S58">
         <f ca="1"/>
-        <v>25</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
@@ -2833,15 +2881,16 @@
         <v>0</v>
       </c>
       <c r="K59">
-        <v>1.5962335000000001E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="S59">
         <f ca="1"/>
-        <v>83</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
@@ -2876,15 +2925,16 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>9.0775070000000003E-3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4.4506016059050382E-3</v>
       </c>
       <c r="N60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="S60">
         <f ca="1"/>
-        <v>143</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
@@ -2919,15 +2969,16 @@
         <v>0</v>
       </c>
       <c r="K61">
-        <v>1.1074898999999999E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="S61">
         <f ca="1"/>
-        <v>147</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
@@ -2962,15 +3013,16 @@
         <v>0</v>
       </c>
       <c r="K62">
-        <v>1.7641542E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="S62">
         <f ca="1"/>
-        <v>126</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
@@ -3005,15 +3057,16 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <v>2.2129300000000001E-3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="S63">
         <f ca="1"/>
-        <v>74</v>
+        <v>145</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
@@ -3048,15 +3101,16 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>9.2930699999999998E-4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="S64">
         <f ca="1"/>
-        <v>170</v>
+        <v>233</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.2">
@@ -3091,15 +3145,16 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <v>2.5044350000000002E-3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="S65">
         <f ca="1"/>
-        <v>232</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
@@ -3134,15 +3189,16 @@
         <v>0</v>
       </c>
       <c r="K66">
-        <v>1.3356704E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="S66">
         <f ca="1"/>
-        <v>38</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
@@ -3177,15 +3233,16 @@
         <v>0</v>
       </c>
       <c r="K67">
-        <v>1.3563788E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="S67">
         <f ca="1"/>
-        <v>76</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.2">
@@ -3220,15 +3277,16 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <v>3.108502E-3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="S68">
         <f ca="1"/>
-        <v>167</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
@@ -3263,15 +3321,16 @@
         <v>0</v>
       </c>
       <c r="K69">
-        <v>1.0856648999999999E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="S69">
         <f ca="1"/>
-        <v>190</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
@@ -3306,15 +3365,16 @@
         <v>0</v>
       </c>
       <c r="K70">
-        <v>1.5558213E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="S70">
         <f ca="1"/>
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
@@ -3349,10 +3409,11 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <v>1.9690972000000001E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="S71">
@@ -3392,15 +3453,16 @@
         <v>0</v>
       </c>
       <c r="K72">
-        <v>1.5708571000000001E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="S72">
         <f ca="1"/>
-        <v>225</v>
+        <v>208</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
@@ -3435,15 +3497,16 @@
         <v>0</v>
       </c>
       <c r="K73">
-        <v>3.3113629999999999E-3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N73">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="S73">
         <f ca="1"/>
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
@@ -3478,15 +3541,16 @@
         <v>0</v>
       </c>
       <c r="K74">
-        <v>1.0092202E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="N74">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="S74">
         <f ca="1"/>
-        <v>168</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
@@ -3521,15 +3585,16 @@
         <v>0</v>
       </c>
       <c r="K75">
-        <v>1.8850116E-2</v>
+        <f t="shared" ref="K75:K138" ca="1" si="3">IF(COUNTIF(N$10:N$19, S75)&gt;0, RAND()*0.02, 0)</f>
+        <v>0</v>
       </c>
       <c r="N75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="S75">
         <f ca="1"/>
-        <v>96</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
@@ -3564,15 +3629,16 @@
         <v>0</v>
       </c>
       <c r="K76">
-        <v>1.5926596000000001E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N76">
-        <f t="shared" ref="N76:N139" si="2">N75+1</f>
+        <f t="shared" ref="N76:N139" si="4">N75+1</f>
         <v>67</v>
       </c>
       <c r="S76">
         <f ca="1"/>
-        <v>75</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.2">
@@ -3607,10 +3673,11 @@
         <v>0</v>
       </c>
       <c r="K77">
-        <v>1.92301E-3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="S77">
@@ -3650,15 +3717,16 @@
         <v>0</v>
       </c>
       <c r="K78">
-        <v>7.8497810000000001E-3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="S78">
         <f ca="1"/>
-        <v>182</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.2">
@@ -3693,15 +3761,16 @@
         <v>0</v>
       </c>
       <c r="K79">
-        <v>2.021293E-3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="S79">
         <f ca="1"/>
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.2">
@@ -3736,15 +3805,16 @@
         <v>0</v>
       </c>
       <c r="K80">
-        <v>1.4083726E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
       <c r="S80">
         <f ca="1"/>
-        <v>32</v>
+        <v>164</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.2">
@@ -3779,15 +3849,16 @@
         <v>0</v>
       </c>
       <c r="K81">
-        <v>1.9364108000000001E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="S81">
         <f ca="1"/>
-        <v>173</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.2">
@@ -3822,15 +3893,16 @@
         <v>0</v>
       </c>
       <c r="K82">
-        <v>1.7207494E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
       <c r="S82">
         <f ca="1"/>
-        <v>78</v>
+        <v>240</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.2">
@@ -3865,15 +3937,16 @@
         <v>0</v>
       </c>
       <c r="K83">
-        <v>7.0382700000000001E-3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="S83">
         <f ca="1"/>
-        <v>215</v>
+        <v>182</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.2">
@@ -3908,15 +3981,16 @@
         <v>0</v>
       </c>
       <c r="K84">
-        <v>1.9515607000000001E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="S84">
         <f ca="1"/>
-        <v>94</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.2">
@@ -3951,15 +4025,16 @@
         <v>0</v>
       </c>
       <c r="K85">
-        <v>1.3647111E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>76</v>
       </c>
       <c r="S85">
         <f ca="1"/>
-        <v>152</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.2">
@@ -3994,15 +4069,16 @@
         <v>0</v>
       </c>
       <c r="K86">
-        <v>1.0560467E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>77</v>
       </c>
       <c r="S86">
         <f ca="1"/>
-        <v>145</v>
+        <v>227</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.2">
@@ -4037,15 +4113,16 @@
         <v>0</v>
       </c>
       <c r="K87">
-        <v>6.5671810000000001E-3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="S87">
         <f ca="1"/>
-        <v>45</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.2">
@@ -4080,15 +4157,16 @@
         <v>0</v>
       </c>
       <c r="K88">
-        <v>1.565023E-3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>79</v>
       </c>
       <c r="S88">
         <f ca="1"/>
-        <v>140</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.2">
@@ -4123,15 +4201,16 @@
         <v>0</v>
       </c>
       <c r="K89">
-        <v>9.4516400000000007E-3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="S89">
         <f ca="1"/>
-        <v>181</v>
+        <v>224</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.2">
@@ -4166,15 +4245,16 @@
         <v>0</v>
       </c>
       <c r="K90">
-        <v>1.1009039E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
       <c r="S90">
         <f ca="1"/>
-        <v>184</v>
+        <v>52</v>
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.2">
@@ -4209,15 +4289,16 @@
         <v>0</v>
       </c>
       <c r="K91">
-        <v>9.4360490000000002E-3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="S91">
         <f ca="1"/>
-        <v>199</v>
+        <v>153</v>
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.2">
@@ -4252,15 +4333,16 @@
         <v>0</v>
       </c>
       <c r="K92">
-        <v>5.7663840000000003E-3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
       <c r="S92">
         <f ca="1"/>
-        <v>87</v>
+        <v>193</v>
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.2">
@@ -4295,15 +4377,16 @@
         <v>0</v>
       </c>
       <c r="K93">
-        <v>5.2196499999999999E-4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.4174885016769063E-2</v>
       </c>
       <c r="N93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
       <c r="S93">
         <f ca="1"/>
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.2">
@@ -4338,15 +4421,16 @@
         <v>0</v>
       </c>
       <c r="K94">
-        <v>1.3713263E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>85</v>
       </c>
       <c r="S94">
         <f ca="1"/>
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.2">
@@ -4381,15 +4465,16 @@
         <v>0</v>
       </c>
       <c r="K95">
-        <v>4.8267850000000001E-3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>86</v>
       </c>
       <c r="S95">
         <f ca="1"/>
-        <v>196</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.2">
@@ -4424,15 +4509,16 @@
         <v>0</v>
       </c>
       <c r="K96">
-        <v>3.9691379999999997E-3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
       <c r="S96">
         <f ca="1"/>
-        <v>106</v>
+        <v>46</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.2">
@@ -4467,15 +4553,16 @@
         <v>0</v>
       </c>
       <c r="K97">
-        <v>8.7352829999999999E-3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>88</v>
       </c>
       <c r="S97">
         <f ca="1"/>
-        <v>20</v>
+        <v>247</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.2">
@@ -4510,15 +4597,16 @@
         <v>0</v>
       </c>
       <c r="K98">
-        <v>8.073439E-3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
       <c r="S98">
         <f ca="1"/>
-        <v>195</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.2">
@@ -4553,15 +4641,16 @@
         <v>0</v>
       </c>
       <c r="K99">
-        <v>1.4778436000000001E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="S99">
         <f ca="1"/>
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.2">
@@ -4596,15 +4685,16 @@
         <v>0</v>
       </c>
       <c r="K100">
-        <v>1.2466253E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
       <c r="S100">
         <f ca="1"/>
-        <v>132</v>
+        <v>92</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.2">
@@ -4639,15 +4729,16 @@
         <v>0</v>
       </c>
       <c r="K101">
-        <v>1.0714779000000001E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="S101">
         <f ca="1"/>
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.2">
@@ -4682,15 +4773,16 @@
         <v>0</v>
       </c>
       <c r="K102">
-        <v>9.9489939999999992E-3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
       <c r="S102">
         <f ca="1"/>
-        <v>33</v>
+        <v>232</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.2">
@@ -4725,15 +4817,16 @@
         <v>0</v>
       </c>
       <c r="K103">
-        <v>8.5727779999999996E-3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="S103">
         <f ca="1"/>
-        <v>229</v>
+        <v>188</v>
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.2">
@@ -4768,15 +4861,16 @@
         <v>0</v>
       </c>
       <c r="K104">
-        <v>1.9277084E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>95</v>
       </c>
       <c r="S104">
         <f ca="1"/>
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.2">
@@ -4811,15 +4905,16 @@
         <v>0</v>
       </c>
       <c r="K105">
-        <v>1.0369565000000001E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>96</v>
       </c>
       <c r="S105">
         <f ca="1"/>
-        <v>157</v>
+        <v>58</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.2">
@@ -4854,15 +4949,16 @@
         <v>0</v>
       </c>
       <c r="K106">
-        <v>7.4985720000000002E-3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>97</v>
       </c>
       <c r="S106">
         <f ca="1"/>
-        <v>121</v>
+        <v>98</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.2">
@@ -4897,15 +4993,16 @@
         <v>0</v>
       </c>
       <c r="K107">
-        <v>5.3492920000000003E-3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>98</v>
       </c>
       <c r="S107">
         <f ca="1"/>
-        <v>84</v>
+        <v>166</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.2">
@@ -4940,15 +5037,16 @@
         <v>0</v>
       </c>
       <c r="K108">
-        <v>6.1458199999999998E-3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>99</v>
       </c>
       <c r="S108">
         <f ca="1"/>
-        <v>185</v>
+        <v>219</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.2">
@@ -4983,15 +5081,16 @@
         <v>0</v>
       </c>
       <c r="K109">
-        <v>1.8970016999999999E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3.7890214579648228E-3</v>
       </c>
       <c r="N109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="S109">
         <f ca="1"/>
-        <v>130</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.2">
@@ -5026,15 +5125,16 @@
         <v>0</v>
       </c>
       <c r="K110">
-        <v>1.6728959000000002E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>101</v>
       </c>
       <c r="S110">
         <f ca="1"/>
-        <v>189</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.2">
@@ -5069,15 +5169,16 @@
         <v>0</v>
       </c>
       <c r="K111">
-        <v>9.9254889999999991E-3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>102</v>
       </c>
       <c r="S111">
         <f ca="1"/>
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.2">
@@ -5112,15 +5213,16 @@
         <v>0</v>
       </c>
       <c r="K112">
-        <v>2.9432080000000001E-3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>103</v>
       </c>
       <c r="S112">
         <f ca="1"/>
-        <v>102</v>
+        <v>59</v>
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.2">
@@ -5155,15 +5257,16 @@
         <v>0</v>
       </c>
       <c r="K113">
-        <v>6.8802009999999999E-3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>104</v>
       </c>
       <c r="S113">
         <f ca="1"/>
-        <v>208</v>
+        <v>44</v>
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.2">
@@ -5198,15 +5301,16 @@
         <v>0</v>
       </c>
       <c r="K114">
-        <v>3.2105699999999998E-3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>105</v>
       </c>
       <c r="S114">
         <f ca="1"/>
-        <v>70</v>
+        <v>32</v>
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.2">
@@ -5241,15 +5345,16 @@
         <v>0</v>
       </c>
       <c r="K115">
-        <v>1.2036539000000001E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>106</v>
       </c>
       <c r="S115">
         <f ca="1"/>
-        <v>246</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.2">
@@ -5284,15 +5389,16 @@
         <v>0</v>
       </c>
       <c r="K116">
-        <v>7.5806170000000004E-3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>107</v>
       </c>
       <c r="S116">
         <f ca="1"/>
-        <v>131</v>
+        <v>175</v>
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.2">
@@ -5327,15 +5433,16 @@
         <v>0</v>
       </c>
       <c r="K117">
-        <v>1.3576724E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="S117">
         <f ca="1"/>
-        <v>56</v>
+        <v>109</v>
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.2">
@@ -5370,15 +5477,16 @@
         <v>0</v>
       </c>
       <c r="K118">
-        <v>5.3774369999999997E-3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>109</v>
       </c>
       <c r="S118">
         <f ca="1"/>
-        <v>247</v>
+        <v>169</v>
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.2">
@@ -5413,15 +5521,16 @@
         <v>0</v>
       </c>
       <c r="K119">
-        <v>6.7834030000000003E-3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
       <c r="S119">
         <f ca="1"/>
-        <v>178</v>
+        <v>201</v>
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.2">
@@ -5456,15 +5565,16 @@
         <v>0</v>
       </c>
       <c r="K120">
-        <v>1.2314879000000001E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>111</v>
       </c>
       <c r="S120">
         <f ca="1"/>
-        <v>119</v>
+        <v>195</v>
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.2">
@@ -5499,15 +5609,16 @@
         <v>0</v>
       </c>
       <c r="K121">
-        <v>1.7275281E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>112</v>
       </c>
       <c r="S121">
         <f ca="1"/>
-        <v>61</v>
+        <v>229</v>
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.2">
@@ -5542,15 +5653,16 @@
         <v>0</v>
       </c>
       <c r="K122">
-        <v>1.3160508E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>113</v>
       </c>
       <c r="S122">
         <f ca="1"/>
-        <v>23</v>
+        <v>151</v>
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.2">
@@ -5585,15 +5697,16 @@
         <v>0</v>
       </c>
       <c r="K123">
-        <v>1.6437513000000001E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>114</v>
       </c>
       <c r="S123">
         <f ca="1"/>
-        <v>201</v>
+        <v>213</v>
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.2">
@@ -5628,15 +5741,16 @@
         <v>0</v>
       </c>
       <c r="K124">
-        <v>6.1959299999999999E-4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>115</v>
       </c>
       <c r="S124">
         <f ca="1"/>
-        <v>198</v>
+        <v>163</v>
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.2">
@@ -5671,15 +5785,16 @@
         <v>0</v>
       </c>
       <c r="K125">
-        <v>4.6553310000000004E-3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>116</v>
       </c>
       <c r="S125">
         <f ca="1"/>
-        <v>101</v>
+        <v>129</v>
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.2">
@@ -5714,15 +5829,16 @@
         <v>0</v>
       </c>
       <c r="K126">
-        <v>7.464086E-3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>117</v>
       </c>
       <c r="S126">
         <f ca="1"/>
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.2">
@@ -5757,15 +5873,16 @@
         <v>0</v>
       </c>
       <c r="K127">
-        <v>3.476813E-3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N127">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>118</v>
       </c>
       <c r="S127">
         <f ca="1"/>
-        <v>210</v>
+        <v>101</v>
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.2">
@@ -5800,15 +5917,16 @@
         <v>0</v>
       </c>
       <c r="K128">
-        <v>1.3831615E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>119</v>
       </c>
       <c r="S128">
         <f ca="1"/>
-        <v>4</v>
+        <v>226</v>
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.2">
@@ -5843,15 +5961,16 @@
         <v>0</v>
       </c>
       <c r="K129">
-        <v>1.0693995E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N129">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
       <c r="S129">
         <f ca="1"/>
-        <v>163</v>
+        <v>65</v>
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.2">
@@ -5886,15 +6005,16 @@
         <v>0</v>
       </c>
       <c r="K130">
-        <v>1.9993347000000002E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N130">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>121</v>
       </c>
       <c r="S130">
         <f ca="1"/>
-        <v>1</v>
+        <v>132</v>
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.2">
@@ -5929,15 +6049,16 @@
         <v>0</v>
       </c>
       <c r="K131">
-        <v>1.508612E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>8.223333308297465E-3</v>
       </c>
       <c r="N131">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>122</v>
       </c>
       <c r="S131">
         <f ca="1"/>
-        <v>176</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.2">
@@ -5972,15 +6093,16 @@
         <v>0</v>
       </c>
       <c r="K132">
-        <v>1.8257460000000001E-3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>123</v>
       </c>
       <c r="S132">
         <f ca="1"/>
-        <v>77</v>
+        <v>198</v>
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.2">
@@ -6015,15 +6137,16 @@
         <v>0</v>
       </c>
       <c r="K133">
-        <v>1.3089369999999999E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>124</v>
       </c>
       <c r="S133">
         <f ca="1"/>
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.2">
@@ -6058,15 +6181,16 @@
         <v>0</v>
       </c>
       <c r="K134">
-        <v>1.1197377E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>125</v>
       </c>
       <c r="S134">
         <f ca="1"/>
-        <v>155</v>
+        <v>112</v>
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.2">
@@ -6101,15 +6225,16 @@
         <v>0</v>
       </c>
       <c r="K135">
-        <v>1.2842796E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>126</v>
       </c>
       <c r="S135">
         <f ca="1"/>
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.2">
@@ -6144,15 +6269,16 @@
         <v>0</v>
       </c>
       <c r="K136">
-        <v>1.5478356E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>127</v>
       </c>
       <c r="S136">
         <f ca="1"/>
-        <v>124</v>
+        <v>156</v>
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.2">
@@ -6187,15 +6313,16 @@
         <v>0</v>
       </c>
       <c r="K137">
-        <v>8.5156799999999994E-3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>128</v>
       </c>
       <c r="S137">
         <f ca="1"/>
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.2">
@@ -6230,15 +6357,16 @@
         <v>0</v>
       </c>
       <c r="K138">
-        <v>1.5363887E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="N138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>129</v>
       </c>
       <c r="S138">
         <f ca="1"/>
-        <v>240</v>
+        <v>47</v>
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.2">
@@ -6273,15 +6401,16 @@
         <v>0</v>
       </c>
       <c r="K139">
-        <v>4.1526360000000003E-3</v>
+        <f t="shared" ref="K139:K202" ca="1" si="5">IF(COUNTIF(N$10:N$19, S139)&gt;0, RAND()*0.02, 0)</f>
+        <v>0</v>
       </c>
       <c r="N139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>130</v>
       </c>
       <c r="S139">
         <f ca="1"/>
-        <v>26</v>
+        <v>113</v>
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.2">
@@ -6316,15 +6445,16 @@
         <v>0</v>
       </c>
       <c r="K140">
-        <v>1.3248218000000001E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N140">
-        <f t="shared" ref="N140:N203" si="3">N139+1</f>
+        <f t="shared" ref="N140:N203" si="6">N139+1</f>
         <v>131</v>
       </c>
       <c r="S140">
         <f ca="1"/>
-        <v>235</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.2">
@@ -6359,15 +6489,16 @@
         <v>0</v>
       </c>
       <c r="K141">
-        <v>1.9557646000000001E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N141">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>132</v>
       </c>
       <c r="S141">
         <f ca="1"/>
-        <v>35</v>
+        <v>185</v>
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.2">
@@ -6402,15 +6533,16 @@
         <v>0</v>
       </c>
       <c r="K142">
-        <v>3.9210089999999996E-3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N142">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>133</v>
       </c>
       <c r="S142">
         <f ca="1"/>
-        <v>100</v>
+        <v>39</v>
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.2">
@@ -6445,15 +6577,16 @@
         <v>0</v>
       </c>
       <c r="K143">
-        <v>3.6374480000000002E-3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N143">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>134</v>
       </c>
       <c r="S143">
         <f ca="1"/>
-        <v>21</v>
+        <v>115</v>
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.2">
@@ -6488,15 +6621,16 @@
         <v>0</v>
       </c>
       <c r="K144">
-        <v>3.8269689999999999E-3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N144">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>135</v>
       </c>
       <c r="S144">
         <f ca="1"/>
-        <v>187</v>
+        <v>48</v>
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.2">
@@ -6531,15 +6665,16 @@
         <v>0</v>
       </c>
       <c r="K145">
-        <v>1.8238142999999998E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N145">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>136</v>
       </c>
       <c r="S145">
         <f ca="1"/>
-        <v>172</v>
+        <v>66</v>
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.2">
@@ -6574,15 +6709,16 @@
         <v>0</v>
       </c>
       <c r="K146">
-        <v>4.8172650000000003E-3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>137</v>
       </c>
       <c r="S146">
         <f ca="1"/>
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.2">
@@ -6617,15 +6753,16 @@
         <v>0</v>
       </c>
       <c r="K147">
-        <v>1.9454345000000001E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N147">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>138</v>
       </c>
       <c r="S147">
         <f ca="1"/>
-        <v>66</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.2">
@@ -6660,15 +6797,16 @@
         <v>0</v>
       </c>
       <c r="K148">
-        <v>1.9465032E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N148">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>139</v>
       </c>
       <c r="S148">
         <f ca="1"/>
-        <v>80</v>
+        <v>116</v>
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.2">
@@ -6703,15 +6841,16 @@
         <v>0</v>
       </c>
       <c r="K149">
-        <v>1.892751E-3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N149">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>140</v>
       </c>
       <c r="S149">
         <f ca="1"/>
-        <v>193</v>
+        <v>51</v>
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.2">
@@ -6746,15 +6885,16 @@
         <v>0</v>
       </c>
       <c r="K150">
-        <v>6.3835489999999996E-3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N150">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>141</v>
       </c>
       <c r="S150">
         <f ca="1"/>
-        <v>162</v>
+        <v>111</v>
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.2">
@@ -6789,15 +6929,16 @@
         <v>0</v>
       </c>
       <c r="K151">
-        <v>4.0550589999999997E-3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N151">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>142</v>
       </c>
       <c r="S151">
         <f ca="1"/>
-        <v>228</v>
+        <v>137</v>
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.2">
@@ -6832,15 +6973,16 @@
         <v>0</v>
       </c>
       <c r="K152">
-        <v>1.9578068000000001E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N152">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>143</v>
       </c>
       <c r="S152">
         <f ca="1"/>
-        <v>213</v>
+        <v>160</v>
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.2">
@@ -6875,15 +7017,16 @@
         <v>0</v>
       </c>
       <c r="K153">
-        <v>1.1661176000000001E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N153">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>144</v>
       </c>
       <c r="S153">
         <f ca="1"/>
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.2">
@@ -6918,15 +7061,16 @@
         <v>0</v>
       </c>
       <c r="K154">
-        <v>1.1183583E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N154">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>145</v>
       </c>
       <c r="S154">
         <f ca="1"/>
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.2">
@@ -6961,15 +7105,16 @@
         <v>0</v>
       </c>
       <c r="K155">
-        <v>1.4443948999999999E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N155">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>146</v>
       </c>
       <c r="S155">
         <f ca="1"/>
-        <v>41</v>
+        <v>179</v>
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.2">
@@ -7004,15 +7149,16 @@
         <v>0</v>
       </c>
       <c r="K156">
-        <v>9.4489900000000009E-3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N156">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>147</v>
       </c>
       <c r="S156">
         <f ca="1"/>
-        <v>164</v>
+        <v>41</v>
       </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.2">
@@ -7047,15 +7193,16 @@
         <v>0</v>
       </c>
       <c r="K157">
-        <v>2.9419709999999998E-3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N157">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>148</v>
       </c>
       <c r="S157">
         <f ca="1"/>
-        <v>117</v>
+        <v>81</v>
       </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.2">
@@ -7089,16 +7236,17 @@
       <c r="J158">
         <v>0</v>
       </c>
-      <c r="K158" s="1">
-        <v>7.7914699999999995E-5</v>
+      <c r="K158">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N158">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>149</v>
       </c>
       <c r="S158">
         <f ca="1"/>
-        <v>28</v>
+        <v>102</v>
       </c>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.2">
@@ -7133,15 +7281,16 @@
         <v>0</v>
       </c>
       <c r="K159">
-        <v>1.7510652000000002E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N159">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>150</v>
       </c>
       <c r="S159">
         <f ca="1"/>
-        <v>222</v>
+        <v>144</v>
       </c>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.2">
@@ -7176,15 +7325,16 @@
         <v>0</v>
       </c>
       <c r="K160">
-        <v>7.8477219999999997E-3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N160">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>151</v>
       </c>
       <c r="S160">
         <f ca="1"/>
-        <v>205</v>
+        <v>222</v>
       </c>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.2">
@@ -7219,15 +7369,16 @@
         <v>0</v>
       </c>
       <c r="K161">
-        <v>3.920537E-3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N161">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>152</v>
       </c>
       <c r="S161">
         <f ca="1"/>
-        <v>18</v>
+        <v>96</v>
       </c>
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.2">
@@ -7262,15 +7413,16 @@
         <v>0</v>
       </c>
       <c r="K162">
-        <v>8.9857089999999997E-3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N162">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>153</v>
       </c>
       <c r="S162">
         <f ca="1"/>
-        <v>89</v>
+        <v>135</v>
       </c>
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.2">
@@ -7305,15 +7457,16 @@
         <v>0</v>
       </c>
       <c r="K163">
-        <v>1.6384917999999998E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N163">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>154</v>
       </c>
       <c r="S163">
         <f ca="1"/>
-        <v>10</v>
+        <v>120</v>
       </c>
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.2">
@@ -7347,16 +7500,17 @@
       <c r="J164">
         <v>0</v>
       </c>
-      <c r="K164" s="1">
-        <v>1.08062E-5</v>
+      <c r="K164">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N164">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>155</v>
       </c>
       <c r="S164">
         <f ca="1"/>
-        <v>159</v>
+        <v>174</v>
       </c>
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.2">
@@ -7391,15 +7545,16 @@
         <v>0</v>
       </c>
       <c r="K165">
-        <v>1.7022081000000001E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N165">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>156</v>
       </c>
       <c r="S165">
         <f ca="1"/>
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.2">
@@ -7434,15 +7589,16 @@
         <v>0</v>
       </c>
       <c r="K166">
-        <v>1.703008E-3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N166">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>157</v>
       </c>
       <c r="S166">
         <f ca="1"/>
-        <v>15</v>
+        <v>142</v>
       </c>
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.2">
@@ -7477,15 +7633,16 @@
         <v>0</v>
       </c>
       <c r="K167">
-        <v>5.9602240000000001E-3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N167">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>158</v>
       </c>
       <c r="S167">
         <f ca="1"/>
-        <v>52</v>
+        <v>173</v>
       </c>
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.2">
@@ -7520,15 +7677,16 @@
         <v>0</v>
       </c>
       <c r="K168">
-        <v>1.1688842E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N168">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>159</v>
       </c>
       <c r="S168">
         <f ca="1"/>
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.2">
@@ -7563,15 +7721,16 @@
         <v>0</v>
       </c>
       <c r="K169">
-        <v>5.6642690000000004E-3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N169">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>160</v>
       </c>
       <c r="S169">
         <f ca="1"/>
-        <v>237</v>
+        <v>49</v>
       </c>
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.2">
@@ -7606,15 +7765,16 @@
         <v>0</v>
       </c>
       <c r="K170">
-        <v>1.7320769999999999E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N170">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>161</v>
       </c>
       <c r="S170">
         <f ca="1"/>
-        <v>177</v>
+        <v>141</v>
       </c>
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.2">
@@ -7649,15 +7809,16 @@
         <v>0</v>
       </c>
       <c r="K171">
-        <v>1.4174000000000001E-3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N171">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>162</v>
       </c>
       <c r="S171">
         <f ca="1"/>
-        <v>179</v>
+        <v>121</v>
       </c>
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.2">
@@ -7692,15 +7853,16 @@
         <v>0</v>
       </c>
       <c r="K172">
-        <v>1.7407143999999999E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N172">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>163</v>
       </c>
       <c r="S172">
         <f ca="1"/>
-        <v>197</v>
+        <v>125</v>
       </c>
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.2">
@@ -7735,15 +7897,16 @@
         <v>0</v>
       </c>
       <c r="K173">
-        <v>1.9379732E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N173">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>164</v>
       </c>
       <c r="S173">
         <f ca="1"/>
-        <v>98</v>
+        <v>136</v>
       </c>
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.2">
@@ -7778,15 +7941,16 @@
         <v>0</v>
       </c>
       <c r="K174">
-        <v>3.3323820000000001E-3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N174">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>165</v>
       </c>
       <c r="S174">
         <f ca="1"/>
-        <v>244</v>
+        <v>85</v>
       </c>
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.2">
@@ -7821,15 +7985,16 @@
         <v>0</v>
       </c>
       <c r="K175">
-        <v>1.5959119000000001E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N175">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>166</v>
       </c>
       <c r="S175">
         <f ca="1"/>
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.2">
@@ -7864,15 +8029,16 @@
         <v>0</v>
       </c>
       <c r="K176">
-        <v>4.1995000000000001E-3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N176">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>167</v>
       </c>
       <c r="S176">
         <f ca="1"/>
-        <v>161</v>
+        <v>202</v>
       </c>
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.2">
@@ -7907,15 +8073,16 @@
         <v>0</v>
       </c>
       <c r="K177">
-        <v>6.8604870000000002E-3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N177">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>168</v>
       </c>
       <c r="S177">
         <f ca="1"/>
-        <v>107</v>
+        <v>223</v>
       </c>
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.2">
@@ -7950,15 +8117,16 @@
         <v>0</v>
       </c>
       <c r="K178">
-        <v>1.3862226E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N178">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>169</v>
       </c>
       <c r="S178">
         <f ca="1"/>
-        <v>50</v>
+        <v>178</v>
       </c>
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.2">
@@ -7993,15 +8161,16 @@
         <v>0</v>
       </c>
       <c r="K179">
-        <v>9.3451000000000003E-3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N179">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>170</v>
       </c>
       <c r="S179">
         <f ca="1"/>
-        <v>158</v>
+        <v>35</v>
       </c>
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.2">
@@ -8036,15 +8205,16 @@
         <v>0</v>
       </c>
       <c r="K180">
-        <v>6.125119E-3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.1967429728715213E-2</v>
       </c>
       <c r="N180">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>171</v>
       </c>
       <c r="S180">
         <f ca="1"/>
-        <v>220</v>
+        <v>6</v>
       </c>
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.2">
@@ -8079,15 +8249,16 @@
         <v>0</v>
       </c>
       <c r="K181">
-        <v>3.8680810000000002E-3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N181">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>172</v>
       </c>
       <c r="S181">
         <f ca="1"/>
-        <v>188</v>
+        <v>218</v>
       </c>
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.2">
@@ -8122,15 +8293,16 @@
         <v>0</v>
       </c>
       <c r="K182">
-        <v>1.5037895000000001E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N182">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>173</v>
       </c>
       <c r="S182">
         <f ca="1"/>
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.2">
@@ -8165,15 +8337,16 @@
         <v>0</v>
       </c>
       <c r="K183">
-        <v>1.2345541E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N183">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>174</v>
       </c>
       <c r="S183">
         <f ca="1"/>
-        <v>39</v>
+        <v>197</v>
       </c>
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.2">
@@ -8208,15 +8381,16 @@
         <v>0</v>
       </c>
       <c r="K184">
-        <v>1.7476970000000001E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N184">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>175</v>
       </c>
       <c r="S184">
         <f ca="1"/>
-        <v>239</v>
+        <v>171</v>
       </c>
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.2">
@@ -8251,15 +8425,16 @@
         <v>0</v>
       </c>
       <c r="K185">
-        <v>1.1916117E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5.8244561874457148E-3</v>
       </c>
       <c r="N185">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>176</v>
       </c>
       <c r="S185">
         <f ca="1"/>
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.2">
@@ -8294,15 +8469,16 @@
         <v>0</v>
       </c>
       <c r="K186">
-        <v>8.8709289999999996E-3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N186">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>177</v>
       </c>
       <c r="S186">
         <f ca="1"/>
-        <v>175</v>
+        <v>119</v>
       </c>
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.2">
@@ -8337,15 +8513,16 @@
         <v>0</v>
       </c>
       <c r="K187">
-        <v>1.018E-3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N187">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>178</v>
       </c>
       <c r="S187">
         <f ca="1"/>
-        <v>72</v>
+        <v>241</v>
       </c>
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.2">
@@ -8380,15 +8557,16 @@
         <v>0</v>
       </c>
       <c r="K188">
-        <v>5.2437940000000004E-3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N188">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>179</v>
       </c>
       <c r="S188">
         <f ca="1"/>
-        <v>203</v>
+        <v>53</v>
       </c>
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.2">
@@ -8423,15 +8601,16 @@
         <v>0</v>
       </c>
       <c r="K189">
-        <v>1.7520032000000001E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N189">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>180</v>
       </c>
       <c r="S189">
         <f ca="1"/>
-        <v>212</v>
+        <v>33</v>
       </c>
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.2">
@@ -8466,15 +8645,16 @@
         <v>0</v>
       </c>
       <c r="K190">
-        <v>1.9772202999999999E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N190">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>181</v>
       </c>
       <c r="S190">
         <f ca="1"/>
-        <v>37</v>
+        <v>95</v>
       </c>
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.2">
@@ -8509,15 +8689,16 @@
         <v>0</v>
       </c>
       <c r="K191">
-        <v>1.0199705E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N191">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>182</v>
       </c>
       <c r="S191">
         <f ca="1"/>
-        <v>123</v>
+        <v>181</v>
       </c>
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.2">
@@ -8552,15 +8733,16 @@
         <v>0</v>
       </c>
       <c r="K192">
-        <v>1.5599903E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N192">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>183</v>
       </c>
       <c r="S192">
         <f ca="1"/>
-        <v>160</v>
+        <v>42</v>
       </c>
     </row>
     <row r="193" spans="1:19" x14ac:dyDescent="0.2">
@@ -8595,15 +8777,16 @@
         <v>0</v>
       </c>
       <c r="K193">
-        <v>7.0736929999999998E-3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N193">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>184</v>
       </c>
       <c r="S193">
         <f ca="1"/>
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="194" spans="1:19" x14ac:dyDescent="0.2">
@@ -8638,15 +8821,16 @@
         <v>0</v>
       </c>
       <c r="K194">
-        <v>1.9865684000000002E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N194">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>185</v>
       </c>
       <c r="S194">
         <f ca="1"/>
-        <v>136</v>
+        <v>215</v>
       </c>
     </row>
     <row r="195" spans="1:19" x14ac:dyDescent="0.2">
@@ -8681,15 +8865,16 @@
         <v>0</v>
       </c>
       <c r="K195">
-        <v>5.1516940000000001E-3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N195">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>186</v>
       </c>
       <c r="S195">
         <f ca="1"/>
-        <v>149</v>
+        <v>50</v>
       </c>
     </row>
     <row r="196" spans="1:19" x14ac:dyDescent="0.2">
@@ -8724,15 +8909,16 @@
         <v>0</v>
       </c>
       <c r="K196">
-        <v>6.8469660000000003E-3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N196">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>187</v>
       </c>
       <c r="S196">
         <f ca="1"/>
-        <v>63</v>
+        <v>161</v>
       </c>
     </row>
     <row r="197" spans="1:19" x14ac:dyDescent="0.2">
@@ -8767,15 +8953,16 @@
         <v>0</v>
       </c>
       <c r="K197">
-        <v>1.2710984999999999E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N197">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>188</v>
       </c>
       <c r="S197">
         <f ca="1"/>
-        <v>148</v>
+        <v>97</v>
       </c>
     </row>
     <row r="198" spans="1:19" x14ac:dyDescent="0.2">
@@ -8810,10 +8997,11 @@
         <v>0</v>
       </c>
       <c r="K198">
-        <v>1.2398014000000001E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N198">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>189</v>
       </c>
       <c r="S198">
@@ -8853,15 +9041,16 @@
         <v>0</v>
       </c>
       <c r="K199">
-        <v>1.5226412E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N199">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>190</v>
       </c>
       <c r="S199">
         <f ca="1"/>
-        <v>54</v>
+        <v>104</v>
       </c>
     </row>
     <row r="200" spans="1:19" x14ac:dyDescent="0.2">
@@ -8896,15 +9085,16 @@
         <v>0</v>
       </c>
       <c r="K200">
-        <v>1.7660545E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N200">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>191</v>
       </c>
       <c r="S200">
         <f ca="1"/>
-        <v>128</v>
+        <v>244</v>
       </c>
     </row>
     <row r="201" spans="1:19" x14ac:dyDescent="0.2">
@@ -8939,15 +9129,16 @@
         <v>0</v>
       </c>
       <c r="K201">
-        <v>3.6463419999999999E-3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N201">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>192</v>
       </c>
       <c r="S201">
         <f ca="1"/>
-        <v>171</v>
+        <v>25</v>
       </c>
     </row>
     <row r="202" spans="1:19" x14ac:dyDescent="0.2">
@@ -8982,15 +9173,16 @@
         <v>0</v>
       </c>
       <c r="K202">
-        <v>1.3880406E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="N202">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>193</v>
       </c>
       <c r="S202">
         <f ca="1"/>
-        <v>60</v>
+        <v>221</v>
       </c>
     </row>
     <row r="203" spans="1:19" x14ac:dyDescent="0.2">
@@ -9025,15 +9217,16 @@
         <v>0</v>
       </c>
       <c r="K203">
-        <v>2.7553310000000002E-3</v>
+        <f t="shared" ref="K203:K257" ca="1" si="7">IF(COUNTIF(N$10:N$19, S203)&gt;0, RAND()*0.02, 0)</f>
+        <v>0</v>
       </c>
       <c r="N203">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>194</v>
       </c>
       <c r="S203">
         <f ca="1"/>
-        <v>112</v>
+        <v>238</v>
       </c>
     </row>
     <row r="204" spans="1:19" x14ac:dyDescent="0.2">
@@ -9068,15 +9261,16 @@
         <v>0</v>
       </c>
       <c r="K204">
-        <v>9.0579230000000007E-3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N204">
-        <f t="shared" ref="N204:N257" si="4">N203+1</f>
+        <f t="shared" ref="N204:N257" si="8">N203+1</f>
         <v>195</v>
       </c>
       <c r="S204">
         <f ca="1"/>
-        <v>67</v>
+        <v>143</v>
       </c>
     </row>
     <row r="205" spans="1:19" x14ac:dyDescent="0.2">
@@ -9111,15 +9305,16 @@
         <v>0</v>
       </c>
       <c r="K205">
-        <v>1.1340901E-2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N205">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>196</v>
       </c>
       <c r="S205">
         <f ca="1"/>
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="206" spans="1:19" x14ac:dyDescent="0.2">
@@ -9154,15 +9349,16 @@
         <v>0</v>
       </c>
       <c r="K206">
-        <v>5.427556E-3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N206">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>197</v>
       </c>
       <c r="S206">
         <f ca="1"/>
-        <v>30</v>
+        <v>194</v>
       </c>
     </row>
     <row r="207" spans="1:19" x14ac:dyDescent="0.2">
@@ -9197,15 +9393,16 @@
         <v>0</v>
       </c>
       <c r="K207">
-        <v>1.7686302000000001E-2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N207">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>198</v>
       </c>
       <c r="S207">
         <f ca="1"/>
-        <v>191</v>
+        <v>64</v>
       </c>
     </row>
     <row r="208" spans="1:19" x14ac:dyDescent="0.2">
@@ -9240,15 +9437,16 @@
         <v>0</v>
       </c>
       <c r="K208">
-        <v>7.9597650000000006E-3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N208">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>199</v>
       </c>
       <c r="S208">
         <f ca="1"/>
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="209" spans="1:19" x14ac:dyDescent="0.2">
@@ -9283,15 +9481,16 @@
         <v>0</v>
       </c>
       <c r="K209">
-        <v>1.1580048000000001E-2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N209">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="S209">
         <f ca="1"/>
-        <v>85</v>
+        <v>26</v>
       </c>
     </row>
     <row r="210" spans="1:19" x14ac:dyDescent="0.2">
@@ -9326,15 +9525,16 @@
         <v>0</v>
       </c>
       <c r="K210">
-        <v>4.5853869999999998E-3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N210">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>201</v>
       </c>
       <c r="S210">
         <f ca="1"/>
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="211" spans="1:19" x14ac:dyDescent="0.2">
@@ -9369,15 +9569,16 @@
         <v>0</v>
       </c>
       <c r="K211">
-        <v>1.9734076E-2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N211">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>202</v>
       </c>
       <c r="S211">
         <f ca="1"/>
-        <v>31</v>
+        <v>131</v>
       </c>
     </row>
     <row r="212" spans="1:19" x14ac:dyDescent="0.2">
@@ -9412,15 +9613,16 @@
         <v>0</v>
       </c>
       <c r="K212">
-        <v>2.571874E-3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N212">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>203</v>
       </c>
       <c r="S212">
         <f ca="1"/>
-        <v>99</v>
+        <v>183</v>
       </c>
     </row>
     <row r="213" spans="1:19" x14ac:dyDescent="0.2">
@@ -9455,15 +9657,16 @@
         <v>0</v>
       </c>
       <c r="K213">
-        <v>1.6604758000000001E-2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N213">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>204</v>
       </c>
       <c r="S213">
         <f ca="1"/>
-        <v>238</v>
+        <v>71</v>
       </c>
     </row>
     <row r="214" spans="1:19" x14ac:dyDescent="0.2">
@@ -9498,15 +9701,16 @@
         <v>0</v>
       </c>
       <c r="K214">
-        <v>8.6472630000000005E-3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N214">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>205</v>
       </c>
       <c r="S214">
         <f ca="1"/>
-        <v>22</v>
+        <v>242</v>
       </c>
     </row>
     <row r="215" spans="1:19" x14ac:dyDescent="0.2">
@@ -9541,15 +9745,16 @@
         <v>0</v>
       </c>
       <c r="K215">
-        <v>1.5050795E-2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N215">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>206</v>
       </c>
       <c r="S215">
         <f ca="1"/>
-        <v>3</v>
+        <v>103</v>
       </c>
     </row>
     <row r="216" spans="1:19" x14ac:dyDescent="0.2">
@@ -9584,15 +9789,16 @@
         <v>0</v>
       </c>
       <c r="K216">
-        <v>3.7703929999999999E-3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N216">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>207</v>
       </c>
       <c r="S216">
         <f ca="1"/>
-        <v>200</v>
+        <v>28</v>
       </c>
     </row>
     <row r="217" spans="1:19" x14ac:dyDescent="0.2">
@@ -9627,15 +9833,16 @@
         <v>0</v>
       </c>
       <c r="K217">
-        <v>1.1751035999999999E-2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N217">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>208</v>
       </c>
       <c r="S217">
         <f ca="1"/>
-        <v>192</v>
+        <v>248</v>
       </c>
     </row>
     <row r="218" spans="1:19" x14ac:dyDescent="0.2">
@@ -9670,15 +9877,16 @@
         <v>0</v>
       </c>
       <c r="K218">
-        <v>1.8592451999999999E-2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N218">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>209</v>
       </c>
       <c r="S218">
         <f ca="1"/>
-        <v>108</v>
+        <v>180</v>
       </c>
     </row>
     <row r="219" spans="1:19" x14ac:dyDescent="0.2">
@@ -9713,15 +9921,16 @@
         <v>0</v>
       </c>
       <c r="K219">
-        <v>1.6879429999999999E-3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N219">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>210</v>
       </c>
       <c r="S219">
         <f ca="1"/>
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="220" spans="1:19" x14ac:dyDescent="0.2">
@@ -9756,15 +9965,16 @@
         <v>0</v>
       </c>
       <c r="K220">
-        <v>7.9871040000000001E-3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N220">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>211</v>
       </c>
       <c r="S220">
         <f ca="1"/>
-        <v>34</v>
+        <v>77</v>
       </c>
     </row>
     <row r="221" spans="1:19" x14ac:dyDescent="0.2">
@@ -9799,15 +10009,16 @@
         <v>0</v>
       </c>
       <c r="K221">
-        <v>7.5333570000000001E-3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N221">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>212</v>
       </c>
       <c r="S221">
         <f ca="1"/>
-        <v>120</v>
+        <v>146</v>
       </c>
     </row>
     <row r="222" spans="1:19" x14ac:dyDescent="0.2">
@@ -9842,15 +10053,16 @@
         <v>0</v>
       </c>
       <c r="K222">
-        <v>9.1608790000000002E-3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N222">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>213</v>
       </c>
       <c r="S222">
         <f ca="1"/>
-        <v>231</v>
+        <v>152</v>
       </c>
     </row>
     <row r="223" spans="1:19" x14ac:dyDescent="0.2">
@@ -9885,15 +10097,16 @@
         <v>0</v>
       </c>
       <c r="K223">
-        <v>1.4782297E-2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N223">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>214</v>
       </c>
       <c r="S223">
         <f ca="1"/>
-        <v>137</v>
+        <v>236</v>
       </c>
     </row>
     <row r="224" spans="1:19" x14ac:dyDescent="0.2">
@@ -9928,15 +10141,16 @@
         <v>0</v>
       </c>
       <c r="K224">
-        <v>5.2643229999999996E-3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N224">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>215</v>
       </c>
       <c r="S224">
         <f ca="1"/>
-        <v>110</v>
+        <v>237</v>
       </c>
     </row>
     <row r="225" spans="1:19" x14ac:dyDescent="0.2">
@@ -9971,15 +10185,16 @@
         <v>0</v>
       </c>
       <c r="K225">
-        <v>1.5524619999999999E-3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N225">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>216</v>
       </c>
       <c r="S225">
         <f ca="1"/>
-        <v>44</v>
+        <v>206</v>
       </c>
     </row>
     <row r="226" spans="1:19" x14ac:dyDescent="0.2">
@@ -10014,15 +10229,16 @@
         <v>0</v>
       </c>
       <c r="K226">
-        <v>1.3725032E-2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3.2315148430888917E-3</v>
       </c>
       <c r="N226">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>217</v>
       </c>
       <c r="S226">
         <f ca="1"/>
-        <v>62</v>
+        <v>9</v>
       </c>
     </row>
     <row r="227" spans="1:19" x14ac:dyDescent="0.2">
@@ -10057,15 +10273,16 @@
         <v>0</v>
       </c>
       <c r="K227">
-        <v>1.2113703E-2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N227">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>218</v>
       </c>
       <c r="S227">
         <f ca="1"/>
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="228" spans="1:19" x14ac:dyDescent="0.2">
@@ -10100,15 +10317,16 @@
         <v>0</v>
       </c>
       <c r="K228">
-        <v>2.479911E-3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N228">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>219</v>
       </c>
       <c r="S228">
         <f ca="1"/>
-        <v>138</v>
+        <v>57</v>
       </c>
     </row>
     <row r="229" spans="1:19" x14ac:dyDescent="0.2">
@@ -10143,15 +10361,16 @@
         <v>0</v>
       </c>
       <c r="K229">
-        <v>5.1508599999999999E-4</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>8.4188803944528941E-3</v>
       </c>
       <c r="N229">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>220</v>
       </c>
       <c r="S229">
         <f ca="1"/>
-        <v>214</v>
+        <v>4</v>
       </c>
     </row>
     <row r="230" spans="1:19" x14ac:dyDescent="0.2">
@@ -10186,15 +10405,16 @@
         <v>0</v>
       </c>
       <c r="K230">
-        <v>1.5105326000000001E-2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N230">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>221</v>
       </c>
       <c r="S230">
         <f ca="1"/>
-        <v>133</v>
+        <v>217</v>
       </c>
     </row>
     <row r="231" spans="1:19" x14ac:dyDescent="0.2">
@@ -10229,15 +10449,16 @@
         <v>0</v>
       </c>
       <c r="K231">
-        <v>4.2139910000000003E-3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3.8530597256941613E-3</v>
       </c>
       <c r="N231">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>222</v>
       </c>
       <c r="S231">
         <f ca="1"/>
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232" spans="1:19" x14ac:dyDescent="0.2">
@@ -10272,15 +10493,16 @@
         <v>0</v>
       </c>
       <c r="K232">
-        <v>1.7677928999999998E-2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N232">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>223</v>
       </c>
       <c r="S232">
         <f ca="1"/>
-        <v>194</v>
+        <v>72</v>
       </c>
     </row>
     <row r="233" spans="1:19" x14ac:dyDescent="0.2">
@@ -10315,15 +10537,16 @@
         <v>0</v>
       </c>
       <c r="K233">
-        <v>1.6754979999999999E-2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N233">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>224</v>
       </c>
       <c r="S233">
         <f ca="1"/>
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="234" spans="1:19" x14ac:dyDescent="0.2">
@@ -10358,15 +10581,16 @@
         <v>0</v>
       </c>
       <c r="K234">
-        <v>1.2751699999999999E-3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N234">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>225</v>
       </c>
       <c r="S234">
         <f ca="1"/>
-        <v>206</v>
+        <v>187</v>
       </c>
     </row>
     <row r="235" spans="1:19" x14ac:dyDescent="0.2">
@@ -10401,15 +10625,16 @@
         <v>0</v>
       </c>
       <c r="K235">
-        <v>6.1229379999999996E-3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N235">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>226</v>
       </c>
       <c r="S235">
         <f ca="1"/>
-        <v>151</v>
+        <v>76</v>
       </c>
     </row>
     <row r="236" spans="1:19" x14ac:dyDescent="0.2">
@@ -10444,15 +10669,16 @@
         <v>0</v>
       </c>
       <c r="K236">
-        <v>1.2919998E-2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N236">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>227</v>
       </c>
       <c r="S236">
         <f ca="1"/>
-        <v>125</v>
+        <v>186</v>
       </c>
     </row>
     <row r="237" spans="1:19" x14ac:dyDescent="0.2">
@@ -10487,15 +10713,16 @@
         <v>0</v>
       </c>
       <c r="K237">
-        <v>1.2107176000000001E-2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N237">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>228</v>
       </c>
       <c r="S237">
         <f ca="1"/>
-        <v>93</v>
+        <v>216</v>
       </c>
     </row>
     <row r="238" spans="1:19" x14ac:dyDescent="0.2">
@@ -10530,15 +10757,16 @@
         <v>0</v>
       </c>
       <c r="K238">
-        <v>2.3721929999999999E-3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N238">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>229</v>
       </c>
       <c r="S238">
         <f ca="1"/>
-        <v>86</v>
+        <v>18</v>
       </c>
     </row>
     <row r="239" spans="1:19" x14ac:dyDescent="0.2">
@@ -10573,15 +10801,16 @@
         <v>0</v>
       </c>
       <c r="K239">
-        <v>1.1187861E-2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N239">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>230</v>
       </c>
       <c r="S239">
         <f ca="1"/>
-        <v>146</v>
+        <v>17</v>
       </c>
     </row>
     <row r="240" spans="1:19" x14ac:dyDescent="0.2">
@@ -10616,15 +10845,16 @@
         <v>0</v>
       </c>
       <c r="K240">
-        <v>1.7791089E-2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N240">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>231</v>
       </c>
       <c r="S240">
         <f ca="1"/>
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="241" spans="1:19" x14ac:dyDescent="0.2">
@@ -10659,15 +10889,16 @@
         <v>0</v>
       </c>
       <c r="K241">
-        <v>2.3070489999999998E-3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N241">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>232</v>
       </c>
       <c r="S241">
         <f ca="1"/>
-        <v>82</v>
+        <v>228</v>
       </c>
     </row>
     <row r="242" spans="1:19" x14ac:dyDescent="0.2">
@@ -10702,15 +10933,16 @@
         <v>0</v>
       </c>
       <c r="K242">
-        <v>1.4481835E-2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N242">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>233</v>
       </c>
       <c r="S242">
         <f ca="1"/>
-        <v>111</v>
+        <v>246</v>
       </c>
     </row>
     <row r="243" spans="1:19" x14ac:dyDescent="0.2">
@@ -10745,15 +10977,16 @@
         <v>0</v>
       </c>
       <c r="K243">
-        <v>1.7174717999999999E-2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N243">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>234</v>
       </c>
       <c r="S243">
         <f ca="1"/>
-        <v>226</v>
+        <v>122</v>
       </c>
     </row>
     <row r="244" spans="1:19" x14ac:dyDescent="0.2">
@@ -10788,15 +11021,16 @@
         <v>0</v>
       </c>
       <c r="K244">
-        <v>6.3375030000000004E-3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N244">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>235</v>
       </c>
       <c r="S244">
         <f ca="1"/>
-        <v>154</v>
+        <v>108</v>
       </c>
     </row>
     <row r="245" spans="1:19" x14ac:dyDescent="0.2">
@@ -10831,15 +11065,16 @@
         <v>0</v>
       </c>
       <c r="K245">
-        <v>1.2667748E-2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N245">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>236</v>
       </c>
       <c r="S245">
         <f ca="1"/>
-        <v>36</v>
+        <v>231</v>
       </c>
     </row>
     <row r="246" spans="1:19" x14ac:dyDescent="0.2">
@@ -10874,15 +11109,16 @@
         <v>0</v>
       </c>
       <c r="K246">
-        <v>8.3103459999999997E-3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N246">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>237</v>
       </c>
       <c r="S246">
         <f ca="1"/>
-        <v>68</v>
+        <v>214</v>
       </c>
     </row>
     <row r="247" spans="1:19" x14ac:dyDescent="0.2">
@@ -10917,15 +11153,16 @@
         <v>0</v>
       </c>
       <c r="K247">
-        <v>7.4786319999999998E-3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N247">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>238</v>
       </c>
       <c r="S247">
         <f ca="1"/>
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="248" spans="1:19" x14ac:dyDescent="0.2">
@@ -10960,15 +11197,16 @@
         <v>0</v>
       </c>
       <c r="K248">
-        <v>1.3110357E-2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N248">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>239</v>
       </c>
       <c r="S248">
         <f ca="1"/>
-        <v>207</v>
+        <v>118</v>
       </c>
     </row>
     <row r="249" spans="1:19" x14ac:dyDescent="0.2">
@@ -11003,15 +11241,16 @@
         <v>0</v>
       </c>
       <c r="K249">
-        <v>1.1317397999999999E-2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N249">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>240</v>
       </c>
       <c r="S249">
         <f ca="1"/>
-        <v>234</v>
+        <v>67</v>
       </c>
     </row>
     <row r="250" spans="1:19" x14ac:dyDescent="0.2">
@@ -11046,15 +11285,16 @@
         <v>0</v>
       </c>
       <c r="K250">
-        <v>1.5025462E-2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N250">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>241</v>
       </c>
       <c r="S250">
         <f ca="1"/>
-        <v>211</v>
+        <v>100</v>
       </c>
     </row>
     <row r="251" spans="1:19" x14ac:dyDescent="0.2">
@@ -11089,15 +11329,16 @@
         <v>0</v>
       </c>
       <c r="K251">
-        <v>8.8003790000000005E-3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N251">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>242</v>
       </c>
       <c r="S251">
         <f ca="1"/>
-        <v>224</v>
+        <v>14</v>
       </c>
     </row>
     <row r="252" spans="1:19" x14ac:dyDescent="0.2">
@@ -11132,15 +11373,16 @@
         <v>0</v>
       </c>
       <c r="K252">
-        <v>7.9248670000000004E-3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1.5505517366166972E-2</v>
       </c>
       <c r="N252">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>243</v>
       </c>
       <c r="S252">
         <f ca="1"/>
-        <v>204</v>
+        <v>10</v>
       </c>
     </row>
     <row r="253" spans="1:19" x14ac:dyDescent="0.2">
@@ -11175,15 +11417,16 @@
         <v>0</v>
       </c>
       <c r="K253">
-        <v>8.1280640000000008E-3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N253">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>244</v>
       </c>
       <c r="S253">
         <f ca="1"/>
-        <v>2</v>
+        <v>245</v>
       </c>
     </row>
     <row r="254" spans="1:19" x14ac:dyDescent="0.2">
@@ -11218,15 +11461,16 @@
         <v>0</v>
       </c>
       <c r="K254">
-        <v>3.4680539999999999E-3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N254">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>245</v>
       </c>
       <c r="S254">
         <f ca="1"/>
-        <v>223</v>
+        <v>138</v>
       </c>
     </row>
     <row r="255" spans="1:19" x14ac:dyDescent="0.2">
@@ -11261,15 +11505,16 @@
         <v>0</v>
       </c>
       <c r="K255">
-        <v>1.636789E-3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N255">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>246</v>
       </c>
       <c r="S255">
         <f ca="1"/>
-        <v>79</v>
+        <v>106</v>
       </c>
     </row>
     <row r="256" spans="1:19" x14ac:dyDescent="0.2">
@@ -11304,15 +11549,16 @@
         <v>0</v>
       </c>
       <c r="K256">
-        <v>6.5186649999999999E-3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N256">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>247</v>
       </c>
       <c r="S256">
         <f ca="1"/>
-        <v>48</v>
+        <v>87</v>
       </c>
     </row>
     <row r="257" spans="1:19" x14ac:dyDescent="0.2">
@@ -11347,15 +11593,16 @@
         <v>0</v>
       </c>
       <c r="K257">
-        <v>1.7082817E-2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="N257">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>248</v>
       </c>
       <c r="S257">
         <f ca="1"/>
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
